--- a/data/trans_bre/P1410-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P1410-Clase-trans_bre.xlsx
@@ -649,7 +649,7 @@
         <v>0.338862712081367</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.4567631704634456</v>
+        <v>-0.4567631704634457</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.730685651973542</v>
+        <v>-5.801359356063458</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.003825442146069</v>
+        <v>-4.109203273611729</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.688516411781386</v>
+        <v>-1.656711358142766</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.741109960481892</v>
+        <v>-4.53380523921979</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.9322802148031124</v>
+        <v>-0.9267529596886194</v>
       </c>
       <c r="H5" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.461500491267043</v>
+        <v>-0.4683496000832095</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.6949901050752669</v>
+        <v>-0.690205039335714</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.9175016898657246</v>
+        <v>-0.9565831561119882</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.8011331153777813</v>
+        <v>-0.7774201271917829</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.803715265133991</v>
+        <v>3.620806620475742</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-0.4543872921688464</v>
+        <v>-0.3579757684772057</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.1978363709504315</v>
+        <v>-0.162996175948662</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.06106436672796103</v>
+        <v>0.1956012740537351</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.897902802795176</v>
+        <v>2.01061794050908</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.08890427619471429</v>
+        <v>-0.08361289336763419</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-4.092598636474928</v>
+        <v>-4.195073335174838</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-3.844712016074187</v>
+        <v>-3.743755935975513</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-4.762982703106529</v>
+        <v>-4.314906541571586</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-4.717750488046384</v>
+        <v>-4.842605667695641</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.8676994654757377</v>
+        <v>-0.8828757532475591</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.9389801798672248</v>
+        <v>-0.9206350565398534</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.8845319809092073</v>
+        <v>-0.8541782160452027</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.8647544451942785</v>
+        <v>-0.8751141255079317</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4731948590878017</v>
+        <v>0.4936856011333161</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6428729323877974</v>
+        <v>0.5050048456865747</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2256437920517792</v>
+        <v>0.4314139907338085</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-1.219557889504426</v>
+        <v>-1.25925307219227</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4487216852315355</v>
+        <v>0.3951242655779327</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8213303391596215</v>
+        <v>0.5648549789079315</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1729923633429715</v>
+        <v>0.3132097738568864</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.3093107188590886</v>
+        <v>-0.3584988495709472</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.982583298098455</v>
+        <v>-5.2928767280587</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.002759555244599</v>
+        <v>-3.603305530810998</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.296666326352067</v>
+        <v>-1.030180614079449</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.810729754943175</v>
+        <v>-3.411706454029174</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.9890310626670691</v>
+        <v>-0.8960241244603442</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.6659946138846208</v>
+        <v>-0.6650574970025552</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.2787780508946435</v>
+        <v>-0.2392570689856114</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.5218343162244502</v>
+        <v>-0.5081987267672828</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4504983126787929</v>
+        <v>0.250521855712096</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.092737898030011</v>
+        <v>2.175173031241813</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.952819006651794</v>
+        <v>8.748932832869686</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.538460425453538</v>
+        <v>5.501101557832982</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.2471559777324971</v>
+        <v>0.2534808787274609</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5538440325345807</v>
+        <v>0.6023350749728568</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.454958478650869</v>
+        <v>2.521715447191347</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.057852880917177</v>
+        <v>1.074994253494225</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-4.006622886828453</v>
+        <v>-4.213456128120434</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-3.972847582284295</v>
+        <v>-3.740819875518588</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-3.19443018277839</v>
+        <v>-3.308512724288126</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-5.282576967241172</v>
+        <v>-5.151087127910573</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6124724341659608</v>
+        <v>-0.626386985778366</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.7415278802896994</v>
+        <v>-0.7270225547348415</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.6175055366381513</v>
+        <v>-0.6290107063066627</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.7265811197385539</v>
+        <v>-0.7173480402190979</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-0.3448496364433022</v>
+        <v>-0.4309529379169028</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-0.7317945125359406</v>
+        <v>-0.5060713517518164</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1367042692796971</v>
+        <v>0.2431380173775609</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-2.054689456116723</v>
+        <v>-2.016360914171702</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.05795233666136155</v>
+        <v>-0.07741681582438999</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.1706803652327388</v>
+        <v>-0.1368955409501912</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.05931740902174747</v>
+        <v>0.116931596011236</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.4004774271082943</v>
+        <v>-0.3810161427882918</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-0.1309674451369251</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.20071111441365</v>
+        <v>0.2007111144136514</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.04304333622490319</v>
@@ -1049,7 +1049,7 @@
         <v>-0.03002974568809804</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.03284575867906805</v>
+        <v>0.03284575867906829</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.028987524280554</v>
+        <v>-3.1379284170401</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.8388983256280161</v>
+        <v>-0.4895258384606578</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.52434874296717</v>
+        <v>-2.438072260540899</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.118620202351656</v>
+        <v>-2.137248112611249</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.4565448802130178</v>
+        <v>-0.4703835476812075</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.1501422161328008</v>
+        <v>-0.09949165793147138</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.4676653394504917</v>
+        <v>-0.4390374217998544</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.2786969330222203</v>
+        <v>-0.278887116126136</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.495442568965597</v>
+        <v>2.776612813296957</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.499374054205671</v>
+        <v>4.719181162330139</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.97041112453679</v>
+        <v>2.171553004085102</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.092436407465588</v>
+        <v>2.30639275784582</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.7097752889311324</v>
+        <v>0.7893408406991155</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.373495024548773</v>
+        <v>1.467195165426225</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.602288491567607</v>
+        <v>0.6971901381068778</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.4493559239611448</v>
+        <v>0.5106627577038774</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>6.318097205945117</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4.900554107164292</v>
+        <v>4.90055410716429</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>14.65650076215831</v>
@@ -1160,24 +1160,24 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>3.216227335355263</v>
+        <v>3.275288935817997</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.284709444751258</v>
+        <v>1.576870646057269</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4.433177172472799</v>
+        <v>4.36821078080237</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-0.2874950082397754</v>
+        <v>-0.6989266050504559</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="n">
-        <v>0.08669764831100873</v>
+        <v>0.3054216996704163</v>
       </c>
       <c r="I20" s="6" t="inlineStr"/>
       <c r="J20" s="6" t="n">
-        <v>-0.1206222465661043</v>
+        <v>-0.1345229563107872</v>
       </c>
     </row>
     <row r="21">
@@ -1188,24 +1188,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>5.92784797312385</v>
+        <v>5.804498973847934</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>6.193966033432369</v>
+        <v>6.400666125546449</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>8.181974942101911</v>
+        <v>8.067520545327033</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6.965958192401335</v>
+        <v>6.951824804409938</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
-      <c r="H21" s="6" t="n">
-        <v>16.08000888547452</v>
-      </c>
+      <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="inlineStr"/>
       <c r="J21" s="6" t="n">
-        <v>29.28905814062766</v>
+        <v>29.64641782056198</v>
       </c>
     </row>
     <row r="22">
@@ -1229,7 +1227,7 @@
         <v>0.7496467986803368</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-0.9619375037744148</v>
+        <v>-0.9619375037744133</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-0.1831950679038536</v>
@@ -1241,7 +1239,7 @@
         <v>0.1989768674102721</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>-0.1770595976666165</v>
+        <v>-0.1770595976666162</v>
       </c>
     </row>
     <row r="23">
@@ -1252,28 +1250,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.739963203094131</v>
+        <v>-1.785097351476457</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.669568407114178</v>
+        <v>-0.5451958907593942</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.2570117391144133</v>
+        <v>-0.2264427287210893</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.822119827904534</v>
+        <v>-1.871797172224697</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.3528734995137806</v>
+        <v>-0.3499830611035427</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.1527404439141519</v>
+        <v>-0.1321319224048932</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.06061762917351835</v>
+        <v>-0.05491404735936459</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.3053625374514338</v>
+        <v>-0.3175576764132251</v>
       </c>
     </row>
     <row r="24">
@@ -1284,28 +1282,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1988024251378454</v>
+        <v>0.1238952941534764</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.206084805889152</v>
+        <v>1.302592660213892</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.730998717380207</v>
+        <v>1.719473870191337</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-0.05045765598527853</v>
+        <v>-0.08582894207505518</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.04543961321116353</v>
+        <v>0.03057095477764421</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3548566154125343</v>
+        <v>0.3808078188230046</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.52705644655245</v>
+        <v>0.5097185881388777</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>-0.00614307360429138</v>
+        <v>-0.01682440825259853</v>
       </c>
     </row>
     <row r="25">
